--- a/target/classes/caseconf/userQueryById/Case_userQueryById.xlsx
+++ b/target/classes/caseconf/userQueryById/Case_userQueryById.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -193,14 +193,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -251,15 +243,6 @@
   </si>
   <si>
     <t>/queryById</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"CONSUME",
-"tenantUserId":"000111",
-"dataType": "0",
-"dataDetail": "all"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -284,9 +267,332 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005"
+    <t>非必传参数-dataType为0
+脱敏信息</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryById</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataType为1
+1为明文信息</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataType为2
+2为不可逆加密信息</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataType为空
+返回为0</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryById</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataType为4
+提示加type参数不正确</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jia'm</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu'zheng'que</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0014",
+    "resMsg": "系统异常",
+    "successful": 0
+}</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'hiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'mi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail缺失
+获取所有</t>
+    <rPh sb="16" eb="17">
+      <t>que'shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为all</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为部分值4选2，3</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xuan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为创建时为空参数</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chuang'jian'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为dwewr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为 name11</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-tenantId为空</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+必传参数-tenantUserId为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"CONSUME",
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"300",
+"tenantUserId": "321",
+"dataType": "0",
+"dataDetail": "name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryById</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "USR2002",
+    "resMsg": "用户不存在",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"",
+"tenantUserId": "000111",
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantId': rejected value []; codes [NotEmpty.queryUserInfoByIdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"CONSUME",
+"tenantUserId": "",
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantUserId': rejected value []; codes [NotBlank.queryUserInfoByIdReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantUserId":"000111",
+ "dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.queryUserInfoByIdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.queryUserInfoByIdReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryById-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryById-002</t>
+  </si>
+  <si>
+    <t>userQueryById-003</t>
+  </si>
+  <si>
+    <t>userQueryById-004</t>
+  </si>
+  <si>
+    <t>userQueryById-005</t>
+  </si>
+  <si>
+    <t>userQueryById-006</t>
+  </si>
+  <si>
+    <t>userQueryById-007</t>
+  </si>
+  <si>
+    <t>userQueryById-008</t>
+  </si>
+  <si>
+    <t>userQueryById-009</t>
+  </si>
+  <si>
+    <t>userQueryById-010</t>
+  </si>
+  <si>
+    <t>userQueryById-011</t>
+  </si>
+  <si>
+    <t>userQueryById-012</t>
+  </si>
+  <si>
+    <t>userQueryById-013</t>
+  </si>
+  <si>
+    <t>userQueryById-014</t>
+  </si>
+  <si>
+    <t>userQueryById-015</t>
+  </si>
+  <si>
+    <t>userQueryById-016</t>
+  </si>
+  <si>
+    <t>userQueryById-017</t>
+  </si>
+  <si>
+    <t>userQueryById-018</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId":"000113",
+"dataType": "0",
+"dataDetail": "all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -296,36 +602,16 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小*",
-        "mobileNo": "188****4567",
-        "certNo": "3412**********0000",
-        "email": "1234***@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李*",
+        "mobileNo": "155****6733",
+        "certNo": "5412**********0000",
+        "email": "3234***@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataType为0
-脱敏信息</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/queryById</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"0"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -335,61 +621,39 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小*",
-        "mobileNo": "188****4567",
-        "certNo": "3412**********0000",
-        "email": "1234***@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李*",
+        "mobileNo": "155****6733",
+        "certNo": "5412**********0000",
+        "email": "3234***@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataType为1
-1为明文信息</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataType为2
-2为不可逆加密信息</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataType为空
-返回为0</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>kong</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/queryById</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":""
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":"0"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":"1"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -399,178 +663,24 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小*",
-        "mobileNo": "188****4567",
-        "certNo": "3412**********0000",
-        "email": "1234***@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李四",
+        "mobileNo": "15510556733",
+        "certNo": "541222199303040000",
+        "email": "3234567@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataType为4
-提示加type参数不正确</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ti'shi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jia'm</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>bu'zheng'que</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"4"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0014",
-    "resMsg": "系统异常",
-    "successful": 0
-}</t>
-    <rPh sb="0" eb="1">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fan'hiu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jia'mi</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataDetail缺失
-获取所有</t>
-    <rPh sb="16" eb="17">
-      <t>que'shi</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataDetail为all</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataDetail为部分值4选2，3</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>xuan</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataDetail为创建时为空参数</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>chuang'jian'shi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kong</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataDetail为dwewr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"1",
-"dataDetail":"dwewr"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataDetail为 name11</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数-tenantId为空</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-必传参数-tenantUserId为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"CONSUME",
-"dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"300",
-"tenantUserId": "321",
-"dataType": "0",
-"dataDetail": "name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/queryById</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "USR2002",
-    "resMsg": "用户不存在",
-    "successful": 0
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":"2"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -580,24 +690,24 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小芳",
-        "mobileNo": "18899934567",
-        "certNo": "341222199303040000",
-        "email": "1234567@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "mobileNo": "74108036c205aedb06337232d5a01f03",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "email": "03065f0f961760adf3d79341ac1972e2",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"1"
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":""
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -607,24 +717,41 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小芳",
-        "mobileNo": "18899934567",
-        "certNo": "341222199303040000",
-        "email": "1234567@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李*",
+        "mobileNo": "155****6733",
+        "certNo": "5412**********0000",
+        "email": "3234***@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
-"tenantId":"consume",
+"tenantId":"1001",
 "tenantUserId": "005",
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
 "dataType":"2"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":"1",
+"dataDetail":"all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -634,16 +761,25 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-        "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-        "certNo": "2bb6fa304390f4ebdf1479372649b515",
-        "email": "a71249d4fe6f56f76de86b532ef74c1b",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李四",
+        "mobileNo": "15510556733",
+        "certNo": "541222199303040000",
+        "email": "3234567@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":"1",
+"dataDetail":"name,certNo"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -653,34 +789,14 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-        "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-        "certNo": "2bb6fa304390f4ebdf1479372649b515",
-        "email": "a71249d4fe6f56f76de86b532ef74c1b",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李四",
+        "certNo": "541222199303040000",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"1",
-"dataDetail":"name,certNo"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -690,31 +806,12 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小芳",
-        "certNo": "341222199303040000",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"2"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005",
-"dataType":"1",
-"dataDetail":"1name1111,certNo111"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -724,81 +821,48 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
-"tenantId":"",
-"tenantUserId": "000111",
+"tenantId":"1001",
+"tenantUserId": "000113",
 "dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantId': rejected value []; codes [NotEmpty.queryUserInfoByIdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"CONSUME",
-"tenantUserId": "",
+"dataDetail":"1name1111,certNo111"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
 "dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantUserId': rejected value []; codes [NotBlank.queryUserInfoByIdReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantUserId":"000111",
- "dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.queryUserInfoByIdReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryById(***.web.request.QueryUserInfoByIdReq): [Field error in object 'queryUserInfoByIdReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.queryUserInfoByIdReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByIdReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "123",
-"tenantUserId": "679"
+"dataDetail":"dewer"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "110"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -808,69 +872,14 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "123",
-        "tenantUserId": "679",
-        "userId": 694640163258183680,
-        "createTime": "2020-03-31 19:12:01",
-        "updateTime": "2020-03-31 19:12:01"
+        "tenantId": "1001",
+        "tenantUserId": "110",
+        "userId": 793145221335302333,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>userQueryById-001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>userQueryById-002</t>
-  </si>
-  <si>
-    <t>userQueryById-003</t>
-  </si>
-  <si>
-    <t>userQueryById-004</t>
-  </si>
-  <si>
-    <t>userQueryById-005</t>
-  </si>
-  <si>
-    <t>userQueryById-006</t>
-  </si>
-  <si>
-    <t>userQueryById-007</t>
-  </si>
-  <si>
-    <t>userQueryById-008</t>
-  </si>
-  <si>
-    <t>userQueryById-009</t>
-  </si>
-  <si>
-    <t>userQueryById-010</t>
-  </si>
-  <si>
-    <t>userQueryById-011</t>
-  </si>
-  <si>
-    <t>userQueryById-012</t>
-  </si>
-  <si>
-    <t>userQueryById-013</t>
-  </si>
-  <si>
-    <t>userQueryById-014</t>
-  </si>
-  <si>
-    <t>userQueryById-015</t>
-  </si>
-  <si>
-    <t>userQueryById-016</t>
-  </si>
-  <si>
-    <t>userQueryById-017</t>
-  </si>
-  <si>
-    <t>userQueryById-018</t>
   </si>
 </sst>
 </file>
@@ -985,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1064,6 +1073,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1350,8 +1362,8 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1416,44 +1428,48 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="84">
+    <row r="2" spans="1:16" ht="409.5">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>70</v>
+      </c>
       <c r="H2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="19" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -1462,30 +1478,30 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3" s="14"/>
     </row>
@@ -1494,30 +1510,30 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="19" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1526,30 +1542,30 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="19" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -1558,62 +1574,62 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="19" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="266">
+    <row r="7" spans="1:16" ht="280">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="19" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -1622,30 +1638,30 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="21" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -1654,62 +1670,62 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:16" ht="266">
+    <row r="10" spans="1:16" ht="280">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="N10" s="14"/>
     </row>
@@ -1718,30 +1734,30 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="19" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
@@ -1751,30 +1767,30 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="19" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
@@ -1784,30 +1800,30 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="19" t="s">
-        <v>74</v>
+      <c r="K13" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="21" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
@@ -1817,30 +1833,30 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
@@ -1850,30 +1866,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N15" s="9"/>
     </row>
@@ -1882,30 +1898,30 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="25" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N16" s="9"/>
     </row>
@@ -1914,30 +1930,30 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="25" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N17" s="9"/>
     </row>
@@ -1946,30 +1962,30 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="25" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N18" s="9"/>
     </row>
@@ -1978,30 +1994,30 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="25" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N19" s="9"/>
     </row>

--- a/target/classes/caseconf/userQueryById/Case_userQueryById.xlsx
+++ b/target/classes/caseconf/userQueryById/Case_userQueryById.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userQueryById/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="9620" yWindow="-23840" windowWidth="30740" windowHeight="23000"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryById" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -432,23 +443,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId":"CONSUME",
-"dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"300",
-"tenantUserId": "321",
-"dataType": "0",
-"dataDetail": "name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>/queryById</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -480,15 +474,6 @@
   </si>
   <si>
     <t>{
-"tenantId":"CONSUME",
-"tenantUserId": "",
-"dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0001",
     "resMsg": "系统错误",
     "successful": 0,
@@ -576,16 +561,6 @@
   </si>
   <si>
     <t>userQueryById-018</t>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -733,14 +708,6 @@
   <si>
     <t>{
 "tenantId":"1001",
-"tenantUserId": "005",
-"dataType":"4"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"1001",
 "tenantUserId": "000113",
 "dataType":"2"
 }</t>
@@ -849,17 +816,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId":"1001",
 "tenantUserId": "110"
@@ -881,12 +837,76 @@
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "321",
+"dataType": "0",
+"dataDetail": "name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113",
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "",
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,6 +969,31 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -994,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1076,6 +1121,54 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1361,33 +1454,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="74.1640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,12 +1530,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5">
+    <row r="2" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>21</v>
@@ -1450,10 +1543,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -1465,20 +1558,20 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="84">
+    <row r="3" spans="1:16" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>23</v>
@@ -1491,34 +1584,38 @@
         <v>17</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="224">
+    <row r="4" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
@@ -1529,28 +1626,32 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="224">
+    <row r="5" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
@@ -1561,28 +1662,32 @@
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="224">
+    <row r="6" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -1593,28 +1698,32 @@
         <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="280">
+    <row r="7" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1625,28 +1734,32 @@
         <v>14</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="167" customHeight="1">
+    <row r="8" spans="1:16" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1657,60 +1770,69 @@
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="207.5" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:16" s="40" customFormat="1" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19" t="s">
+      <c r="K9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="1:16" ht="280">
+    <row r="10" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1721,28 +1843,32 @@
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="224">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1753,29 +1879,33 @@
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="196">
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1786,29 +1916,33 @@
         <v>14</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="168">
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="300" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1819,62 +1953,70 @@
         <v>14</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="168">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:16" s="43" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="10" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="K14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="38"/>
+      <c r="O14" s="42"/>
     </row>
-    <row r="15" spans="1:16" ht="168">
+    <row r="15" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1885,20 +2027,20 @@
         <v>14</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="266">
+    <row r="16" spans="1:16" ht="285" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>39</v>
@@ -1917,20 +2059,20 @@
         <v>14</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="266">
+    <row r="17" spans="1:14" ht="285" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>40</v>
@@ -1949,20 +2091,20 @@
         <v>14</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="114.5" customHeight="1">
+    <row r="18" spans="1:14" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>15</v>
@@ -1981,20 +2123,20 @@
         <v>14</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="119" customHeight="1">
+    <row r="19" spans="1:14" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>16</v>
@@ -2013,11 +2155,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N19" s="9"/>
     </row>
